--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp7-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp7-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H2">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I2">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J2">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N2">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O2">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P2">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q2">
-        <v>9.100107300741334</v>
+        <v>4.790333019149776</v>
       </c>
       <c r="R2">
-        <v>81.90096570667198</v>
+        <v>43.112997172348</v>
       </c>
       <c r="S2">
-        <v>0.2009947155095543</v>
+        <v>0.07760301665407952</v>
       </c>
       <c r="T2">
-        <v>0.2009947155095543</v>
+        <v>0.07760301665407952</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H3">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I3">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J3">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>83.72704</v>
       </c>
       <c r="O3">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P3">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q3">
-        <v>7.932262557582223</v>
+        <v>3.631809208071111</v>
       </c>
       <c r="R3">
-        <v>71.39036301824</v>
+        <v>32.68628287264</v>
       </c>
       <c r="S3">
-        <v>0.1752004458209461</v>
+        <v>0.05883502239441481</v>
       </c>
       <c r="T3">
-        <v>0.1752004458209462</v>
+        <v>0.0588350223944148</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H4">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I4">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J4">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N4">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O4">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P4">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q4">
-        <v>5.769603216520889</v>
+        <v>2.857154394816111</v>
       </c>
       <c r="R4">
-        <v>51.92642894868801</v>
+        <v>25.714389553345</v>
       </c>
       <c r="S4">
-        <v>0.1274336355367101</v>
+        <v>0.04628567558827974</v>
       </c>
       <c r="T4">
-        <v>0.1274336355367101</v>
+        <v>0.04628567558827974</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,14 +714,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H5">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I5">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J5">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N5">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O5">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P5">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q5">
-        <v>7.917533304140445</v>
+        <v>1.721752011233777</v>
       </c>
       <c r="R5">
-        <v>71.25779973726399</v>
+        <v>15.495768101104</v>
       </c>
       <c r="S5">
-        <v>0.17487511975529</v>
+        <v>0.02789224662833241</v>
       </c>
       <c r="T5">
-        <v>0.1748751197552901</v>
+        <v>0.02789224662833241</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H6">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I6">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J6">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N6">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O6">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P6">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q6">
-        <v>4.994817825772445</v>
+        <v>2.873366378756999</v>
       </c>
       <c r="R6">
-        <v>44.95336043195201</v>
+        <v>25.860297408813</v>
       </c>
       <c r="S6">
-        <v>0.1103208956482742</v>
+        <v>0.04654830844798512</v>
       </c>
       <c r="T6">
-        <v>0.1103208956482743</v>
+        <v>0.04654830844798512</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H7">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I7">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J7">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N7">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O7">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P7">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q7">
-        <v>6.386081652122667</v>
+        <v>2.558556854804888</v>
       </c>
       <c r="R7">
-        <v>57.474734869104</v>
+        <v>23.027011693244</v>
       </c>
       <c r="S7">
-        <v>0.1410498384765875</v>
+        <v>0.04144841901807352</v>
       </c>
       <c r="T7">
-        <v>0.1410498384765876</v>
+        <v>0.04144841901807352</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H8">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I8">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J8">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N8">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O8">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P8">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q8">
-        <v>0.6862733618859999</v>
+        <v>10.46260336630755</v>
       </c>
       <c r="R8">
-        <v>6.176460256973999</v>
+        <v>94.16343029676798</v>
       </c>
       <c r="S8">
-        <v>0.01515776842794205</v>
+        <v>0.1694933483820089</v>
       </c>
       <c r="T8">
-        <v>0.01515776842794206</v>
+        <v>0.1694933483820089</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,16 +977,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H9">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I9">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J9">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>83.72704</v>
       </c>
       <c r="O9">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P9">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q9">
-        <v>0.5982017917866667</v>
+        <v>7.932262557582223</v>
       </c>
       <c r="R9">
-        <v>5.38381612608</v>
+        <v>71.39036301824</v>
       </c>
       <c r="S9">
-        <v>0.01321252541139507</v>
+        <v>0.1285020270824178</v>
       </c>
       <c r="T9">
-        <v>0.01321252541139508</v>
+        <v>0.1285020270824177</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H10">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I10">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J10">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N10">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O10">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P10">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q10">
-        <v>0.4351075064606666</v>
+        <v>6.240332993502222</v>
       </c>
       <c r="R10">
-        <v>3.915967558146</v>
+        <v>56.16299694152</v>
       </c>
       <c r="S10">
-        <v>0.009610250361554402</v>
+        <v>0.1010929017431249</v>
       </c>
       <c r="T10">
-        <v>0.009610250361554405</v>
+        <v>0.1010929017431248</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,14 +1086,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H11">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I11">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J11">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N11">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O11">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P11">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q11">
-        <v>0.5970910033153333</v>
+        <v>3.760491873251556</v>
       </c>
       <c r="R11">
-        <v>5.373819029838</v>
+        <v>33.844426859264</v>
       </c>
       <c r="S11">
-        <v>0.01318799134762983</v>
+        <v>0.06091967140924715</v>
       </c>
       <c r="T11">
-        <v>0.01318799134762983</v>
+        <v>0.06091967140924712</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H12">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I12">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J12">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N12">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O12">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P12">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q12">
-        <v>0.3766780223593334</v>
+        <v>6.275741712912</v>
       </c>
       <c r="R12">
-        <v>3.390102201234</v>
+        <v>56.48167541620799</v>
       </c>
       <c r="S12">
-        <v>0.008319714201243326</v>
+        <v>0.1016665202016061</v>
       </c>
       <c r="T12">
-        <v>0.008319714201243328</v>
+        <v>0.1016665202016061</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,46 +1225,418 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
+        <v>0.2842186666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.852656</v>
+      </c>
+      <c r="I13">
+        <v>0.6522022811047395</v>
+      </c>
+      <c r="J13">
+        <v>0.6522022811047393</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.66149466666667</v>
+      </c>
+      <c r="N13">
+        <v>58.984484</v>
+      </c>
+      <c r="O13">
+        <v>0.1388032745500265</v>
+      </c>
+      <c r="P13">
+        <v>0.1388032745500265</v>
+      </c>
+      <c r="Q13">
+        <v>5.588163798833778</v>
+      </c>
+      <c r="R13">
+        <v>50.293474189504</v>
+      </c>
+      <c r="S13">
+        <v>0.09052781228633472</v>
+      </c>
+      <c r="T13">
+        <v>0.09052781228633469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
         <v>0.021434</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>0.064302</v>
       </c>
-      <c r="I13">
-        <v>0.07012534925263751</v>
-      </c>
-      <c r="J13">
-        <v>0.07012534925263753</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>22.468903</v>
-      </c>
-      <c r="N13">
-        <v>67.40670900000001</v>
-      </c>
-      <c r="O13">
-        <v>0.1516869379794603</v>
-      </c>
-      <c r="P13">
-        <v>0.1516869379794604</v>
-      </c>
-      <c r="Q13">
-        <v>0.481598466902</v>
-      </c>
-      <c r="R13">
-        <v>4.334386202118</v>
-      </c>
-      <c r="S13">
-        <v>0.01063709950287282</v>
-      </c>
-      <c r="T13">
-        <v>0.01063709950287283</v>
+      <c r="I14">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J14">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>36.81180933333333</v>
+      </c>
+      <c r="N14">
+        <v>110.435428</v>
+      </c>
+      <c r="O14">
+        <v>0.2598784967371026</v>
+      </c>
+      <c r="P14">
+        <v>0.2598784967371026</v>
+      </c>
+      <c r="Q14">
+        <v>0.7890243212506665</v>
+      </c>
+      <c r="R14">
+        <v>7.101218891255999</v>
+      </c>
+      <c r="S14">
+        <v>0.01278213170101417</v>
+      </c>
+      <c r="T14">
+        <v>0.01278213170101417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.021434</v>
+      </c>
+      <c r="H15">
+        <v>0.064302</v>
+      </c>
+      <c r="I15">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J15">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>27.90901333333333</v>
+      </c>
+      <c r="N15">
+        <v>83.72704</v>
+      </c>
+      <c r="O15">
+        <v>0.1970278712683331</v>
+      </c>
+      <c r="P15">
+        <v>0.197027871268333</v>
+      </c>
+      <c r="Q15">
+        <v>0.5982017917866667</v>
+      </c>
+      <c r="R15">
+        <v>5.38381612608</v>
+      </c>
+      <c r="S15">
+        <v>0.009690821791500473</v>
+      </c>
+      <c r="T15">
+        <v>0.009690821791500472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.021434</v>
+      </c>
+      <c r="H16">
+        <v>0.064302</v>
+      </c>
+      <c r="I16">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J16">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>21.95609833333333</v>
+      </c>
+      <c r="N16">
+        <v>65.868295</v>
+      </c>
+      <c r="O16">
+        <v>0.1550023737603119</v>
+      </c>
+      <c r="P16">
+        <v>0.1550023737603119</v>
+      </c>
+      <c r="Q16">
+        <v>0.4706070116766666</v>
+      </c>
+      <c r="R16">
+        <v>4.23546310509</v>
+      </c>
+      <c r="S16">
+        <v>0.007623796428907336</v>
+      </c>
+      <c r="T16">
+        <v>0.007623796428907336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.021434</v>
+      </c>
+      <c r="H17">
+        <v>0.064302</v>
+      </c>
+      <c r="I17">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J17">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.23098133333333</v>
+      </c>
+      <c r="N17">
+        <v>39.692944</v>
+      </c>
+      <c r="O17">
+        <v>0.09340609987756826</v>
+      </c>
+      <c r="P17">
+        <v>0.09340609987756825</v>
+      </c>
+      <c r="Q17">
+        <v>0.2835928538986666</v>
+      </c>
+      <c r="R17">
+        <v>2.552335685088</v>
+      </c>
+      <c r="S17">
+        <v>0.004594181839988705</v>
+      </c>
+      <c r="T17">
+        <v>0.004594181839988705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.021434</v>
+      </c>
+      <c r="H18">
+        <v>0.064302</v>
+      </c>
+      <c r="I18">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J18">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>22.080681</v>
+      </c>
+      <c r="N18">
+        <v>66.242043</v>
+      </c>
+      <c r="O18">
+        <v>0.1558818838066577</v>
+      </c>
+      <c r="P18">
+        <v>0.1558818838066577</v>
+      </c>
+      <c r="Q18">
+        <v>0.4732773165539999</v>
+      </c>
+      <c r="R18">
+        <v>4.259495848986</v>
+      </c>
+      <c r="S18">
+        <v>0.007667055157066479</v>
+      </c>
+      <c r="T18">
+        <v>0.007667055157066479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.021434</v>
+      </c>
+      <c r="H19">
+        <v>0.064302</v>
+      </c>
+      <c r="I19">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J19">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>19.66149466666667</v>
+      </c>
+      <c r="N19">
+        <v>58.984484</v>
+      </c>
+      <c r="O19">
+        <v>0.1388032745500265</v>
+      </c>
+      <c r="P19">
+        <v>0.1388032745500265</v>
+      </c>
+      <c r="Q19">
+        <v>0.4214244766853333</v>
+      </c>
+      <c r="R19">
+        <v>3.792820290168</v>
+      </c>
+      <c r="S19">
+        <v>0.006827043245618273</v>
+      </c>
+      <c r="T19">
+        <v>0.006827043245618273</v>
       </c>
     </row>
   </sheetData>
